--- a/src/test/resources/template/04_Template_foreach_map.xlsx
+++ b/src/test/resources/template/04_Template_foreach_map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ws000\poi-el\src\test\resources\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="14370" windowHeight="5415"/>
   </bookViews>
@@ -13,8 +18,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+使用完全没有注册过的函数。任意一个类的static函数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+取map里面的值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,17 +112,21 @@
   </si>
   <si>
     <t>#{["name"]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{ T(com.kvn.poi.exp.function.NotRegistedFunction).fmtString(["name"]) }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -88,6 +155,19 @@
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -169,74 +249,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -249,14 +261,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -291,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +335,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,15 +546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
@@ -552,7 +566,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -572,11 +586,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
@@ -586,11 +602,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1"/>
-    <row r="4" spans="1:6" ht="12" customHeight="1"/>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>